--- a/Clustering KMEANS • Segmentación de Clientes/resultados/análisis_clusters.xlsx
+++ b/Clustering KMEANS • Segmentación de Clientes/resultados/análisis_clusters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malcolm\Downloads\PROGRAMACION\GITHUB\SPSS\Clustering KMEANS • Segmentación de Clientes\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A696158-9284-4900-993D-016145E80990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC632941-EFA7-43D9-869A-AF279775AD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1605" windowWidth="18780" windowHeight="9780" xr2:uid="{4789514F-F2B9-43F1-B425-E9FF5F2AEE0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4789514F-F2B9-43F1-B425-E9FF5F2AEE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Análisis_Clusters" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>MntMeatProducts_Mean</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>NumDealsPurchases_Mean</t>
   </si>
@@ -54,31 +51,55 @@
     <t>antiguedad_meses_Mean</t>
   </si>
   <si>
-    <t>CLUSTERS</t>
-  </si>
-  <si>
-    <t>Record_Count</t>
-  </si>
-  <si>
-    <t>clúster-2</t>
-  </si>
-  <si>
-    <t>clúster-1</t>
-  </si>
-  <si>
-    <t>clúster-3</t>
-  </si>
-  <si>
-    <t>clúster-4</t>
+    <t>Income_Mean</t>
+  </si>
+  <si>
+    <t>Recency_Mean</t>
+  </si>
+  <si>
+    <t>NumWebPurchases_Mean</t>
+  </si>
+  <si>
+    <t>NumStorePurchases_Mean</t>
+  </si>
+  <si>
+    <t>NumWebVisitsMonth_Mean</t>
+  </si>
+  <si>
+    <t>AcceptedCmp4_Mean</t>
+  </si>
+  <si>
+    <t>hijos_cant_Mean</t>
+  </si>
+  <si>
+    <t>compras_cant_Mean</t>
+  </si>
+  <si>
+    <t>cluster-1</t>
+  </si>
+  <si>
+    <t>cluster-4</t>
+  </si>
+  <si>
+    <t>cluster-5</t>
+  </si>
+  <si>
+    <t>cluster-3</t>
+  </si>
+  <si>
+    <t>cluster-2</t>
+  </si>
+  <si>
+    <t>Recuento</t>
+  </si>
+  <si>
+    <t>CLUSTER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,14 +111,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,8 +131,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +164,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -168,10 +201,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -189,7 +267,22 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -199,6 +292,36 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -207,16 +330,16 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -228,33 +351,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -269,106 +366,74 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -381,105 +446,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -802,205 +855,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E0FB60-3C3B-463D-B3AC-71DD95C9C09C}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="29.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" hidden="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" hidden="1"/>
+    <col min="10" max="10" width="15.85546875" style="1" hidden="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" hidden="1"/>
+    <col min="12" max="12" width="12" style="1" hidden="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" hidden="1"/>
+    <col min="14" max="14" width="12" style="1" hidden="1"/>
+    <col min="15" max="15" width="13.28515625" style="1" hidden="1"/>
+    <col min="16" max="16" width="13.140625" style="1" hidden="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" hidden="1"/>
+    <col min="18" max="18" width="12.140625" style="1" hidden="1"/>
+    <col min="19" max="19" width="13.28515625" style="1" hidden="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" hidden="1"/>
+    <col min="21" max="22" width="11.42578125" style="1" hidden="1"/>
+    <col min="23" max="25" width="0" style="1" hidden="1"/>
+    <col min="26" max="16384" width="11.42578125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="16"/>
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="25">
+        <v>945</v>
+      </c>
+      <c r="C3" s="11">
+        <v>470</v>
+      </c>
+      <c r="D3" s="11">
+        <v>560</v>
+      </c>
+      <c r="E3" s="11">
+        <v>157</v>
+      </c>
+      <c r="F3" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.109</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.152</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="27">
+        <v>35010.451000000001</v>
+      </c>
+      <c r="C5" s="9">
+        <v>55805.074000000001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>72147.263999999996</v>
+      </c>
+      <c r="E5" s="9">
+        <v>49909.038</v>
+      </c>
+      <c r="F5" s="10">
+        <v>78358.721999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B6" s="27">
+        <v>49.92</v>
+      </c>
+      <c r="C6" s="2">
+        <v>47.46</v>
+      </c>
+      <c r="D6" s="9">
+        <v>50.792999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44.86</v>
+      </c>
+      <c r="F6" s="3">
+        <v>46.648000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="28">
+        <v>1.891</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4.6150000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.341</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.4259999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="B8" s="27">
+        <v>2.052</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.4619999999999997</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.0270000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5.5190000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="27">
+        <v>0.497</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.7320000000000002</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.3040000000000003</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.6819999999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5.5460000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="27">
+        <v>3.234</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7.3280000000000003</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8.609</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.8849999999999998</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8.1669999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="28">
+        <v>6.266</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.351</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.8659999999999997</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="28">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.126</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="29" t="s">
+      <c r="B16" s="28">
+        <v>95.165999999999997</v>
+      </c>
+      <c r="C16" s="2">
+        <v>701.245</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1182.066</v>
+      </c>
+      <c r="E16" s="2">
+        <v>681.76400000000001</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1480.028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1.206</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="21">
-        <v>524</v>
-      </c>
-      <c r="C2" s="31">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D2" s="15">
-        <v>30.79</v>
-      </c>
-      <c r="E2" s="16">
-        <v>2.4729999999999999</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="G2" s="18">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="H2" s="19">
-        <v>0</v>
-      </c>
-      <c r="I2" s="19">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J2" s="15">
-        <v>145.47300000000001</v>
-      </c>
-      <c r="K2" s="20">
-        <v>124.30500000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="22">
-        <v>616</v>
-      </c>
-      <c r="C3" s="32">
-        <v>0.115</v>
-      </c>
-      <c r="D3" s="5">
-        <v>28.960999999999999</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1.81</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="G3" s="3">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="J3" s="5">
-        <v>109.997</v>
-      </c>
-      <c r="K3" s="8">
-        <v>127.03100000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="22">
-        <v>570</v>
-      </c>
-      <c r="C4" s="32">
-        <v>0.153</v>
-      </c>
-      <c r="D4" s="7">
-        <v>162.989</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3.8679999999999999</v>
-      </c>
-      <c r="F4" s="6">
-        <v>3.5489999999999999</v>
-      </c>
-      <c r="G4" s="3">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J4" s="7">
-        <v>848.00699999999995</v>
-      </c>
-      <c r="K4" s="8">
-        <v>129.90899999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="23">
-        <v>530</v>
-      </c>
-      <c r="C5" s="33">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="D5" s="9">
-        <v>460.05500000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1.117</v>
-      </c>
-      <c r="F5" s="11">
-        <v>5.8639999999999999</v>
-      </c>
-      <c r="G5" s="12">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1376.675</v>
-      </c>
-      <c r="K5" s="14">
-        <v>126.411</v>
-      </c>
-    </row>
+      <c r="B18" s="28">
+        <v>125.74</v>
+      </c>
+      <c r="C18" s="9">
+        <v>130.191</v>
+      </c>
+      <c r="D18" s="2">
+        <v>126.577</v>
+      </c>
+      <c r="E18" s="2">
+        <v>126.879</v>
+      </c>
+      <c r="F18" s="3">
+        <v>127.185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="29">
+        <v>5.8109999999999999</v>
+      </c>
+      <c r="C19" s="6">
+        <v>16.617000000000001</v>
+      </c>
+      <c r="D19" s="6">
+        <v>19.027000000000001</v>
+      </c>
+      <c r="E19" s="6">
+        <v>13.057</v>
+      </c>
+      <c r="F19" s="4">
+        <v>19.231000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K5">
-    <sortCondition ref="C2:C5"/>
-  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>